--- a/Water sort Puzzle_TC.xlsx
+++ b/Water sort Puzzle_TC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42097916-F58B-4030-A90B-EE10FFDC3441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1C3EDA-7349-4C89-BE5B-6DF3BBC05053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>작성 일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,82 +96,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>레벨 1 튜토리얼이 정상적으로 진행되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 1 튜토리얼 완료 후 게임 클리어 화면이 출력이 되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 1 튜토리얼 완료 후 게임 클리어 화면 하단 중앙에 "다음" UI가 활성화가 되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 1 튜토리얼 완료 후 게임 클리어 화면 중앙에 미션 관련 UI가 출력되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 1 튜토리얼 완료 후 "다음" 버튼을 클릭 시 레벨 2 튜토리얼로 진행되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 1 튜토리얼 진행 시 하단 중앙에 도움말이 출력되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 2 튜토리얼 진행 시 하단 중앙에 도움말이 출력되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 2 튜토리얼 완료 후 게임 클리어 화면이 출력이 되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 2 튜토리얼 완료 후 게임 클리어 화면 하단 중앙에 "다음" UI가 활성화가 되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 2 튜토리얼 완료 후 게임 클리어 화면 중앙에 미션 관련 UI가 출력되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 중앙에 튜토리얼을 끝낸 경우 "레벨3"으로 텍스트가 출력되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>메인화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>튜토리얼 진행 시 같은 색상을 가진 물병을 클릭 후 다른 물병의 같은 색상의 물을 가진 병으로 물을 이동시킬 수 있는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼 진행 시 다른 색상의 물을 가진 물병을 클릭 후 다른 색상의 물을 가진 물병으로 물을 이동시킬 수 있는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼 진행 시 다른 색상의 물을 가진 물병을 클릭 후 다른 색상의 물을 가진 물병으로 물을 이동시키고자 하면 물병 선택이 다른 물병으로 변경되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"레벨3" 텍스트 하단에 위치한 "▶" 버튼을 클릭할 시 해당 레벨 게임으로 이동하는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"▶" 버튼 하단 좌측에 위치한 소리 버튼 클릭 시 On/Off가 작동되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소리 버튼 우측에 위치한 핸드폰 진동 버튼 클릭 시 On/Off가 작동되는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>핸드폰 진동 버튼 우측에 위치한 메일 버튼 클릭 시 사용자의 메일로 화면이 전환되는가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -229,10 +157,6 @@
   </si>
   <si>
     <t>화면 하단 좌측에 위치한 "개인 정보 보호" 클릭 시 관련 내용이 있는 익스플로어 또는 크롬 등 화면으로 이동하는가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼 진행 시 어떠한 튜브를 선택한 경우 옮길 수 있는 튜브와 그렇지 못한 튜브 위에 O/X UI로 표시를 해주는가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -694,6 +618,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,15 +641,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,10 +952,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1062,12 +986,12 @@
     </row>
     <row r="2" spans="1:14" ht="27.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1142,12 +1066,12 @@
     </row>
     <row r="7" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1182,16 +1106,16 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="3"/>
@@ -1204,14 +1128,14 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="3"/>
@@ -1224,14 +1148,14 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="7">
         <v>3</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="3"/>
@@ -1244,14 +1168,14 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="7">
         <v>4</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="3"/>
@@ -1264,14 +1188,14 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="7">
         <v>5</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="3"/>
@@ -1284,14 +1208,14 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
       <c r="B14" s="7">
         <v>6</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="9" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="3"/>
@@ -1305,11 +1229,13 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="7">
         <v>7</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
@@ -1325,13 +1251,13 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="13"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="7">
         <v>8</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="3"/>
@@ -1345,13 +1271,13 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A17" s="13"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="7">
         <v>9</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="3"/>
@@ -1364,14 +1290,14 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="7">
         <v>10</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="3"/>
@@ -1389,9 +1315,9 @@
       <c r="B19" s="7">
         <v>11</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="3"/>
@@ -1404,14 +1330,14 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="7">
         <v>12</v>
       </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="3"/>
@@ -1424,14 +1350,14 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="7">
         <v>13</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="3"/>
@@ -1449,9 +1375,9 @@
       <c r="B22" s="7">
         <v>14</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="9" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="3"/>
@@ -1469,9 +1395,9 @@
       <c r="B23" s="7">
         <v>15</v>
       </c>
-      <c r="C23" s="40"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="3"/>
@@ -1489,9 +1415,9 @@
       <c r="B24" s="7">
         <v>16</v>
       </c>
-      <c r="C24" s="40"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="9" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="3"/>
@@ -1504,12 +1430,14 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="7">
         <v>17</v>
       </c>
-      <c r="C25" s="40"/>
+      <c r="C25" s="34" t="s">
+        <v>35</v>
+      </c>
       <c r="D25" s="9" t="s">
         <v>36</v>
       </c>
@@ -1524,13 +1452,13 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="7">
         <v>18</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="8"/>
@@ -1544,14 +1472,12 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="7">
         <v>19</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>31</v>
-      </c>
+      <c r="C27" s="35"/>
       <c r="D27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1566,12 +1492,12 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="7">
         <v>20</v>
       </c>
-      <c r="C28" s="40"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="9" t="s">
         <v>39</v>
       </c>
@@ -1586,12 +1512,12 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="7">
         <v>21</v>
       </c>
-      <c r="C29" s="40"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="9" t="s">
         <v>40</v>
       </c>
@@ -1606,14 +1532,14 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="7">
         <v>22</v>
       </c>
-      <c r="C30" s="40"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="3"/>
@@ -1626,14 +1552,14 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="7">
         <v>23</v>
       </c>
-      <c r="C31" s="40"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="3"/>
@@ -1646,14 +1572,14 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="7">
         <v>24</v>
       </c>
-      <c r="C32" s="41"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="9" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="3"/>
@@ -1671,11 +1597,9 @@
       <c r="B33" s="7">
         <v>25</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>41</v>
-      </c>
+      <c r="C33" s="35"/>
       <c r="D33" s="9" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="3"/>
@@ -1688,14 +1612,14 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="7">
         <v>26</v>
       </c>
-      <c r="C34" s="40"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="9" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="3"/>
@@ -1708,14 +1632,14 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="7">
         <v>27</v>
       </c>
-      <c r="C35" s="40"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="9" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="3"/>
@@ -1728,14 +1652,14 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="7">
         <v>28</v>
       </c>
-      <c r="C36" s="40"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="9" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
@@ -1753,9 +1677,9 @@
       <c r="B37" s="7">
         <v>29</v>
       </c>
-      <c r="C37" s="40"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="9" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
@@ -1768,14 +1692,14 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="7">
         <v>30</v>
       </c>
-      <c r="C38" s="40"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="9" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="3"/>
@@ -1788,14 +1712,14 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="7">
         <v>31</v>
       </c>
-      <c r="C39" s="40"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="9" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="3"/>
@@ -1813,9 +1737,9 @@
       <c r="B40" s="7">
         <v>32</v>
       </c>
-      <c r="C40" s="40"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="9" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="3"/>
@@ -1833,9 +1757,9 @@
       <c r="B41" s="7">
         <v>33</v>
       </c>
-      <c r="C41" s="40"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="9" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="3"/>
@@ -1848,14 +1772,16 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="7">
         <v>34</v>
       </c>
-      <c r="C42" s="41"/>
+      <c r="C42" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="D42" s="9" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="3"/>
@@ -1868,16 +1794,14 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="7">
         <v>35</v>
       </c>
-      <c r="C43" s="39" t="s">
-        <v>54</v>
-      </c>
+      <c r="C43" s="35"/>
       <c r="D43" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="3"/>
@@ -1890,14 +1814,14 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="7">
         <v>36</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="16" t="s">
-        <v>56</v>
+      <c r="C44" s="35"/>
+      <c r="D44" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="3"/>
@@ -1915,9 +1839,9 @@
       <c r="B45" s="7">
         <v>37</v>
       </c>
-      <c r="C45" s="40"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="3"/>
@@ -1930,14 +1854,16 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="7">
         <v>38</v>
       </c>
-      <c r="C46" s="40"/>
+      <c r="C46" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="D46" s="9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="3"/>
@@ -1955,9 +1881,9 @@
       <c r="B47" s="7">
         <v>39</v>
       </c>
-      <c r="C47" s="40"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="3"/>
@@ -1970,12 +1896,12 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="7">
         <v>40</v>
       </c>
-      <c r="C48" s="40"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="9" t="s">
         <v>70</v>
       </c>
@@ -1995,7 +1921,7 @@
       <c r="B49" s="7">
         <v>41</v>
       </c>
-      <c r="C49" s="40"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="9" t="s">
         <v>72</v>
       </c>
@@ -2010,14 +1936,16 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="7">
         <v>42</v>
       </c>
-      <c r="C50" s="40"/>
+      <c r="C50" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="D50" s="9" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="3"/>
@@ -2030,14 +1958,14 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="7">
         <v>43</v>
       </c>
-      <c r="C51" s="40"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="9" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="3"/>
@@ -2050,14 +1978,14 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="7">
         <v>44</v>
       </c>
-      <c r="C52" s="40"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="9" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="3"/>
@@ -2070,14 +1998,14 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3"/>
       <c r="B53" s="7">
         <v>45</v>
       </c>
-      <c r="C53" s="40"/>
+      <c r="C53" s="35"/>
       <c r="D53" s="9" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="3"/>
@@ -2090,14 +2018,14 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3"/>
       <c r="B54" s="7">
         <v>46</v>
       </c>
-      <c r="C54" s="40"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="9" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="3"/>
@@ -2110,14 +2038,14 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3"/>
       <c r="B55" s="7">
         <v>47</v>
       </c>
-      <c r="C55" s="40"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="9" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="3"/>
@@ -2130,14 +2058,14 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="7">
         <v>48</v>
       </c>
-      <c r="C56" s="40"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="9" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="3"/>
@@ -2150,14 +2078,14 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
       <c r="B57" s="7">
         <v>49</v>
       </c>
-      <c r="C57" s="40"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="3"/>
@@ -2170,14 +2098,14 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3"/>
       <c r="B58" s="7">
         <v>50</v>
       </c>
-      <c r="C58" s="40"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="9" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="3"/>
@@ -2195,9 +2123,9 @@
       <c r="B59" s="7">
         <v>51</v>
       </c>
-      <c r="C59" s="41"/>
+      <c r="C59" s="33"/>
       <c r="D59" s="9" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="3"/>
@@ -2212,16 +2140,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="3"/>
-      <c r="B60" s="7">
-        <v>52</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="8"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2232,16 +2154,14 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
-      <c r="B61" s="7">
-        <v>53</v>
+      <c r="B61" s="39" t="s">
+        <v>10</v>
       </c>
       <c r="C61" s="40"/>
-      <c r="D61" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="8"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -2254,14 +2174,18 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="3"/>
-      <c r="B62" s="7">
-        <v>54</v>
-      </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="8"/>
+      <c r="B62" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>5</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2272,16 +2196,20 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3"/>
       <c r="B63" s="7">
-        <v>55</v>
-      </c>
-      <c r="C63" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>9</v>
+      </c>
       <c r="D63" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2295,15 +2223,15 @@
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="3"/>
       <c r="B64" s="7">
-        <v>56</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>92</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C64" s="35"/>
       <c r="D64" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -2314,16 +2242,18 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="3"/>
       <c r="B65" s="7">
-        <v>57</v>
-      </c>
-      <c r="C65" s="40"/>
+        <v>3</v>
+      </c>
+      <c r="C65" s="35"/>
       <c r="D65" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -2337,13 +2267,15 @@
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
       <c r="B66" s="7">
-        <v>58</v>
-      </c>
-      <c r="C66" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="C66" s="35"/>
       <c r="D66" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -2357,13 +2289,15 @@
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="3"/>
       <c r="B67" s="7">
-        <v>59</v>
-      </c>
-      <c r="C67" s="41"/>
+        <v>5</v>
+      </c>
+      <c r="C67" s="35"/>
       <c r="D67" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2374,18 +2308,18 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
-      <c r="B68" s="7">
-        <v>60</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E68" s="8"/>
+      <c r="B68" s="20">
+        <v>6</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2396,16 +2330,12 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="3"/>
-      <c r="B69" s="7">
-        <v>61</v>
-      </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="8"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="25"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -2416,16 +2346,12 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="3"/>
-      <c r="B70" s="7">
-        <v>62</v>
-      </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" s="8"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -2436,16 +2362,12 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="3"/>
-      <c r="B71" s="7">
-        <v>63</v>
-      </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="8"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -2456,16 +2378,12 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="3"/>
-      <c r="B72" s="7">
-        <v>64</v>
-      </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E72" s="8"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -2476,16 +2394,11 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="3"/>
-      <c r="B73" s="7">
-        <v>65</v>
-      </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E73" s="8"/>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B73" s="4"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -2496,16 +2409,11 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="3"/>
-      <c r="B74" s="7">
-        <v>66</v>
-      </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E74" s="8"/>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B74" s="4"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -2516,16 +2424,11 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="3"/>
-      <c r="B75" s="7">
-        <v>67</v>
-      </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E75" s="8"/>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B75" s="4"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -2536,16 +2439,11 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="3"/>
-      <c r="B76" s="7">
-        <v>68</v>
-      </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="8"/>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B76" s="4"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -2556,16 +2454,9 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
     </row>
-    <row r="77" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A77" s="3"/>
-      <c r="B77" s="7">
-        <v>69</v>
-      </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E77" s="8"/>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D77" s="18"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -2577,11 +2468,8 @@
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A78" s="3"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -2592,14 +2480,9 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="3"/>
-      <c r="B79" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="38"/>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D79" s="18"/>
+      <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -2611,19 +2494,8 @@
       <c r="N79" s="3"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A80" s="3"/>
-      <c r="B80" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>5</v>
-      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -2634,20 +2506,9 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="3"/>
-      <c r="B81" s="7">
-        <v>1</v>
-      </c>
-      <c r="C81" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>17</v>
-      </c>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D81" s="18"/>
+      <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -2658,18 +2519,9 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A82" s="3"/>
-      <c r="B82" s="7">
-        <v>2</v>
-      </c>
-      <c r="C82" s="40"/>
-      <c r="D82" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>17</v>
-      </c>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D82" s="18"/>
+      <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -2680,18 +2532,8 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A83" s="3"/>
-      <c r="B83" s="7">
-        <v>3</v>
-      </c>
-      <c r="C83" s="40"/>
-      <c r="D83" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>17</v>
-      </c>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -2702,299 +2544,18 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A84" s="3"/>
-      <c r="B84" s="7">
-        <v>4</v>
-      </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A85" s="3"/>
-      <c r="B85" s="7">
-        <v>5</v>
-      </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A86" s="3"/>
-      <c r="B86" s="20">
-        <v>6</v>
-      </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A87" s="3"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A88" s="3"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A89" s="3"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A90" s="3"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B91" s="4"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B92" s="4"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B93" s="4"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B94" s="4"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D95" s="18"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D96" s="18"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D97" s="18"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D98" s="18"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D99" s="18"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D100" s="18"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="C68:C75"/>
+  <mergeCells count="10">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C43:C59"/>
-    <mergeCell ref="C9:C26"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C25:C41"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C15:C24"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C50:C57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>

--- a/Water sort Puzzle_TC.xlsx
+++ b/Water sort Puzzle_TC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA49278B-F097-4097-AC04-A923770CCB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C591BA27-B734-4DC4-9F18-0F3CB245E30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="12192" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양식" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>작성 일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,50 +58,6 @@
   </si>
   <si>
     <t>방가연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐색적 테스팅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 아이디어/ 노트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water soft Puzzle 탐색적 테스팅 : 광고가 나오지 않는 방법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>와이파이를 끄고 데이터를 킨 상태에서의 게임 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터를 끄고 와이파이를 킨 상태에서의 게임 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>와이파이, 데이터를 둘 다 끈 상태에서의 게임 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>와이파이, 데이터를 상태에서의 게임 실행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터를 키고 와이파이 끈 상태에서의 게임 실행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>와이파이를 키고 데이터를 끈 상태에서의 게임 실행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고 재생</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고 재생 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -334,7 +290,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>물 분류 퍼즐 게임 – 재미있는 색상 분류 퍼즐 게임 TC 및 탐색적 테스팅</t>
+    <t>Water Sort Puzzle - Sort Color TC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -481,43 +437,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,21 +486,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,56 +507,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,8 +879,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BB60" sqref="BB60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -976,12 +895,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9"/>
@@ -991,7 +910,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="9"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="12">
@@ -1001,7 +920,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1011,21 +930,21 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1033,11 +952,11 @@
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>18</v>
+      <c r="C8" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -1045,9 +964,9 @@
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -1055,9 +974,9 @@
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -1065,9 +984,9 @@
       <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -1075,9 +994,9 @@
       <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -1085,9 +1004,9 @@
       <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -1095,11 +1014,11 @@
       <c r="B14" s="5">
         <v>7</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>22</v>
+      <c r="C14" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -1107,9 +1026,9 @@
       <c r="B15" s="5">
         <v>8</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1117,9 +1036,9 @@
       <c r="B16" s="5">
         <v>9</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -1127,19 +1046,19 @@
       <c r="B17" s="5">
         <v>10</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>11</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -1147,9 +1066,9 @@
       <c r="B19" s="5">
         <v>12</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -1157,9 +1076,9 @@
       <c r="B20" s="5">
         <v>13</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -1167,9 +1086,9 @@
       <c r="B21" s="5">
         <v>14</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -1177,9 +1096,9 @@
       <c r="B22" s="5">
         <v>15</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E22" s="6"/>
     </row>
@@ -1187,9 +1106,9 @@
       <c r="B23" s="5">
         <v>16</v>
       </c>
-      <c r="C23" s="38"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E23" s="6"/>
     </row>
@@ -1197,11 +1116,11 @@
       <c r="B24" s="5">
         <v>17</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>34</v>
+      <c r="C24" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -1209,9 +1128,9 @@
       <c r="B25" s="5">
         <v>18</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E25" s="6"/>
     </row>
@@ -1219,9 +1138,9 @@
       <c r="B26" s="5">
         <v>19</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1229,9 +1148,9 @@
       <c r="B27" s="5">
         <v>20</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1239,9 +1158,9 @@
       <c r="B28" s="5">
         <v>21</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E28" s="6"/>
     </row>
@@ -1249,9 +1168,9 @@
       <c r="B29" s="5">
         <v>22</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E29" s="6"/>
     </row>
@@ -1259,9 +1178,9 @@
       <c r="B30" s="5">
         <v>23</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E30" s="6"/>
     </row>
@@ -1269,9 +1188,9 @@
       <c r="B31" s="5">
         <v>24</v>
       </c>
-      <c r="C31" s="37"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E31" s="6"/>
     </row>
@@ -1279,9 +1198,9 @@
       <c r="B32" s="5">
         <v>25</v>
       </c>
-      <c r="C32" s="37"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -1289,9 +1208,9 @@
       <c r="B33" s="5">
         <v>26</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E33" s="6"/>
     </row>
@@ -1299,9 +1218,9 @@
       <c r="B34" s="5">
         <v>27</v>
       </c>
-      <c r="C34" s="37"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E34" s="6"/>
     </row>
@@ -1309,9 +1228,9 @@
       <c r="B35" s="5">
         <v>28</v>
       </c>
-      <c r="C35" s="37"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E35" s="6"/>
     </row>
@@ -1319,9 +1238,9 @@
       <c r="B36" s="5">
         <v>29</v>
       </c>
-      <c r="C36" s="37"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E36" s="6"/>
     </row>
@@ -1329,9 +1248,9 @@
       <c r="B37" s="5">
         <v>30</v>
       </c>
-      <c r="C37" s="37"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E37" s="6"/>
     </row>
@@ -1339,9 +1258,9 @@
       <c r="B38" s="5">
         <v>31</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E38" s="6"/>
     </row>
@@ -1349,9 +1268,9 @@
       <c r="B39" s="5">
         <v>32</v>
       </c>
-      <c r="C39" s="37"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E39" s="6"/>
     </row>
@@ -1359,9 +1278,9 @@
       <c r="B40" s="5">
         <v>33</v>
       </c>
-      <c r="C40" s="38"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E40" s="6"/>
     </row>
@@ -1369,11 +1288,11 @@
       <c r="B41" s="5">
         <v>34</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>54</v>
+      <c r="C41" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E41" s="6"/>
     </row>
@@ -1381,9 +1300,9 @@
       <c r="B42" s="5">
         <v>35</v>
       </c>
-      <c r="C42" s="37"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E42" s="6"/>
     </row>
@@ -1391,9 +1310,9 @@
       <c r="B43" s="5">
         <v>36</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E43" s="6"/>
     </row>
@@ -1401,9 +1320,9 @@
       <c r="B44" s="5">
         <v>37</v>
       </c>
-      <c r="C44" s="38"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E44" s="6"/>
     </row>
@@ -1411,11 +1330,11 @@
       <c r="B45" s="5">
         <v>38</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>72</v>
+      <c r="C45" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E45" s="6"/>
     </row>
@@ -1423,9 +1342,9 @@
       <c r="B46" s="5">
         <v>39</v>
       </c>
-      <c r="C46" s="37"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E46" s="6"/>
     </row>
@@ -1433,9 +1352,9 @@
       <c r="B47" s="5">
         <v>40</v>
       </c>
-      <c r="C47" s="37"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E47" s="6"/>
     </row>
@@ -1443,9 +1362,9 @@
       <c r="B48" s="5">
         <v>41</v>
       </c>
-      <c r="C48" s="38"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E48" s="6"/>
     </row>
@@ -1453,11 +1372,11 @@
       <c r="B49" s="5">
         <v>42</v>
       </c>
-      <c r="C49" s="36" t="s">
-        <v>40</v>
+      <c r="C49" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E49" s="6"/>
     </row>
@@ -1465,9 +1384,9 @@
       <c r="B50" s="5">
         <v>43</v>
       </c>
-      <c r="C50" s="37"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E50" s="6"/>
     </row>
@@ -1475,9 +1394,9 @@
       <c r="B51" s="5">
         <v>44</v>
       </c>
-      <c r="C51" s="37"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E51" s="6"/>
     </row>
@@ -1485,9 +1404,9 @@
       <c r="B52" s="5">
         <v>45</v>
       </c>
-      <c r="C52" s="37"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E52" s="6"/>
     </row>
@@ -1495,9 +1414,9 @@
       <c r="B53" s="5">
         <v>46</v>
       </c>
-      <c r="C53" s="37"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E53" s="6"/>
     </row>
@@ -1505,9 +1424,9 @@
       <c r="B54" s="5">
         <v>47</v>
       </c>
-      <c r="C54" s="37"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E54" s="6"/>
     </row>
@@ -1515,9 +1434,9 @@
       <c r="B55" s="5">
         <v>48</v>
       </c>
-      <c r="C55" s="37"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E55" s="6"/>
     </row>
@@ -1525,9 +1444,9 @@
       <c r="B56" s="5">
         <v>49</v>
       </c>
-      <c r="C56" s="37"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E56" s="6"/>
     </row>
@@ -1535,9 +1454,9 @@
       <c r="B57" s="5">
         <v>50</v>
       </c>
-      <c r="C57" s="30"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E57" s="6"/>
     </row>
@@ -1545,177 +1464,129 @@
       <c r="B58" s="5">
         <v>51</v>
       </c>
-      <c r="C58" s="30"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
       <c r="E60" s="35"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B61" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>5</v>
-      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="36"/>
     </row>
     <row r="62" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="B62" s="31"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B63" s="5">
-        <v>2</v>
-      </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B64" s="5">
-        <v>3</v>
-      </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="B64" s="31"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B65" s="5">
-        <v>4</v>
-      </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B66" s="5">
-        <v>5</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B67" s="17">
-        <v>6</v>
-      </c>
+      <c r="B67" s="31"/>
       <c r="C67" s="38"/>
-      <c r="D67" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B68" s="19"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="22"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="34"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C69" s="23"/>
-      <c r="D69" s="15"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C70" s="23"/>
-      <c r="D70" s="15"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C71" s="23"/>
-      <c r="D71" s="15"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C72" s="23"/>
-      <c r="D72" s="15"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C73" s="23"/>
-      <c r="D73" s="15"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C74" s="23"/>
-      <c r="D74" s="15"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C75" s="23"/>
-      <c r="D75" s="15"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D76" s="15"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D77" s="15"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D78" s="15"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D79" s="15"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D80" s="15"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D81" s="15"/>
+      <c r="D81" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C24:C40"/>
     <mergeCell ref="C62:C67"/>
     <mergeCell ref="C14:C23"/>
     <mergeCell ref="C45:C48"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C49:C56"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C24:C40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
